--- a/exports/releve_06.xlsx
+++ b/exports/releve_06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Banque</t>
   </si>
@@ -52,30 +52,36 @@
     <t>Sens</t>
   </si>
   <si>
+    <t>01/11/2020</t>
+  </si>
+  <si>
+    <t>- ‘Mr John Doe £ 20 Sherwood St, Total balance London W1F 7ED sada pe United Kingdom maa Balance held with Monzo £0.00 Balance held with Paragon £192.58 Total outgoings +£271.00 Total deposits Sort Code: 04-00-04 Account Number: 123456789 Date Description (GBP) Amount (GBP) Balance</t>
+  </si>
+  <si>
+    <t>86.69</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
     <t>16/11/2020</t>
   </si>
   <si>
-    <t>SAMUEL CLEMENTS (Faster Payments)  86.69</t>
+    <t>SAMUEL CLEMENTS (Faster Payments) 86.69</t>
   </si>
   <si>
     <t>80.00</t>
   </si>
   <si>
-    <t>Cr</t>
-  </si>
-  <si>
     <t>15/11/2020</t>
   </si>
   <si>
-    <t>SumUp “waihong chines sheffield GBR.  6.69</t>
+    <t>SumUp “waihong chines sheffield GBR. 6.69</t>
   </si>
   <si>
     <t>18.50</t>
   </si>
   <si>
-    <t>Dr</t>
-  </si>
-  <si>
     <t>SAINSBURYS SACAT 4468 SHEFFIELD GBR “ 25.19</t>
   </si>
   <si>
@@ -85,7 +91,7 @@
     <t>14/11/2020</t>
   </si>
   <si>
-    <t>DRINKS STOP SHEFFIELD GBR  28.49</t>
+    <t>DRINKS STOP SHEFFIELD GBR 28.49</t>
   </si>
   <si>
     <t>0.78</t>
@@ -94,7 +100,7 @@
     <t>13/11/2020</t>
   </si>
   <si>
-    <t>IDL GB SHEFFIELD SHEFFIELD GBR  27.27</t>
+    <t>IDL GB SHEFFIELD SHEFFIELD GBR 27.27</t>
   </si>
   <si>
     <t>11.68</t>
@@ -103,13 +109,13 @@
     <t>19/11/2020</t>
   </si>
   <si>
-    <t>LIDL GB SHEFFIELD SHEFFIELD GBR  38.95</t>
+    <t>LIDL GB SHEFFIELD SHEFFIELD GBR 38.95</t>
   </si>
   <si>
     <t>30.36</t>
   </si>
   <si>
-    <t>SAMUEL CLEMENTS (Faster Payments)  69.31</t>
+    <t>SAMUEL CLEMENTS (Faster Payments) 69.31</t>
   </si>
   <si>
     <t>60.00</t>
@@ -444,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,13 +526,10 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -534,55 +537,43 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -590,8 +581,16 @@
       <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/exports/releve_06.xlsx
+++ b/exports/releve_06.xlsx
@@ -14,24 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Banque</t>
   </si>
   <si>
-    <t>® Bankstatements.net</t>
+    <t>\ ¢monzo</t>
   </si>
   <si>
     <t>Compte</t>
   </si>
   <si>
-    <t>123456789</t>
-  </si>
-  <si>
     <t>Titulaire</t>
   </si>
   <si>
-    <t>‘Mr John Doe £86.69</t>
+    <t>Mr John Doe £86.69</t>
   </si>
   <si>
     <t>Période</t>
@@ -52,18 +49,6 @@
     <t>Sens</t>
   </si>
   <si>
-    <t>01/11/2020</t>
-  </si>
-  <si>
-    <t>- ‘Mr John Doe £ 20 Sherwood St, Total balance London W1F 7ED sada pe United Kingdom maa Balance held with Monzo £0.00 Balance held with Paragon £192.58 Total outgoings +£271.00 Total deposits Sort Code: 04-00-04 Account Number: 123456789 Date Description (GBP) Amount (GBP) Balance</t>
-  </si>
-  <si>
-    <t>86.69</t>
-  </si>
-  <si>
-    <t>Cr</t>
-  </si>
-  <si>
     <t>16/11/2020</t>
   </si>
   <si>
@@ -76,49 +61,34 @@
     <t>15/11/2020</t>
   </si>
   <si>
-    <t>SumUp “waihong chines sheffield GBR. 6.69</t>
+    <t>SumUp ‘walhong chines sheffield GBR, 869</t>
   </si>
   <si>
     <t>18.50</t>
   </si>
   <si>
-    <t>SAINSBURYS SACAT 4468 SHEFFIELD GBR “ 25.19</t>
-  </si>
-  <si>
-    <t>1.30</t>
+    <t>SAINSBURYS SACAT 4468 SHEFFIELD GBR 25.19</t>
+  </si>
+  <si>
+    <t>1.90</t>
   </si>
   <si>
     <t>14/11/2020</t>
   </si>
   <si>
-    <t>DRINKS STOP SHEFFIELD GBR 28.49</t>
-  </si>
-  <si>
-    <t>0.78</t>
+    <t>DRINKS STOP SHEFFIELD GBR 078</t>
+  </si>
+  <si>
+    <t>28.49</t>
   </si>
   <si>
     <t>13/11/2020</t>
   </si>
   <si>
-    <t>IDL GB SHEFFIELD SHEFFIELD GBR 27.27</t>
+    <t>_LIDL GB SHEFFIELD SHEFFIELD GBR 2r.2r 191112020 _LIDL GB SHEFFIELD SHEFFIELD GBR 30.98 38.98 131112020 SAMUEL CLEMENTS (Faster Payments) 40.00 69.31</t>
   </si>
   <si>
     <t>11.68</t>
-  </si>
-  <si>
-    <t>19/11/2020</t>
-  </si>
-  <si>
-    <t>LIDL GB SHEFFIELD SHEFFIELD GBR 38.95</t>
-  </si>
-  <si>
-    <t>30.36</t>
-  </si>
-  <si>
-    <t>SAMUEL CLEMENTS (Faster Payments) 69.31</t>
-  </si>
-  <si>
-    <t>60.00</t>
   </si>
 </sst>
 </file>
@@ -450,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,74 +438,68 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -543,54 +507,21 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
